--- a/harsh.xlsb.xlsx
+++ b/harsh.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B331330-1073-4B50-AC7B-2ED57CABDEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6AAD68-72AB-4AB6-94CC-6BB8936B2DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="4471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="4479">
   <si>
     <t>spurred</t>
   </si>
@@ -9153,9 +9153,6 @@
   </si>
   <si>
     <t>dour</t>
-  </si>
-  <si>
-    <t>adj. 阴郁的；抑郁的，闷闷不乐的 relentlessly severe, stern, or gloomy in manner or appearance: a dour tone 闷闷不</t>
   </si>
   <si>
     <t>covert</t>
@@ -14733,6 +14730,34 @@
   </si>
   <si>
     <t>n. 不符；矛盾；相差</t>
+  </si>
+  <si>
+    <t>panoply</t>
+  </si>
+  <si>
+    <t>n. 华丽服饰；全套甲胄，全副盔甲</t>
+  </si>
+  <si>
+    <t>petty</t>
+  </si>
+  <si>
+    <t>adj. 琐碎的；小气的；小规模的</t>
+  </si>
+  <si>
+    <t>singularity</t>
+  </si>
+  <si>
+    <t>n. 奇异；奇点；突出；稀有</t>
+  </si>
+  <si>
+    <t>adj. 阴郁的；抑郁的，闷闷不乐的 relentlessly severe, stern, or gloomy in manner or appearance: a dour tone 闷闷不
+adj. 严厉的；顽强的；阴沉的；不爱讲话的</t>
+  </si>
+  <si>
+    <t>exculpatory</t>
+  </si>
+  <si>
+    <t>adj. 申明无罪的；辩解的</t>
   </si>
 </sst>
 </file>
@@ -15828,8 +15853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD526"/>
   <sheetViews>
-    <sheetView topLeftCell="B335" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16991,10 +17016,10 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B148" t="s">
         <v>3018</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -18110,7 +18135,7 @@
         <v>537</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="293" spans="1:2 16384:16384">
@@ -18425,7 +18450,7 @@
         <v>614</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -19750,226 +19775,226 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B497" t="s">
         <v>3647</v>
-      </c>
-      <c r="B497" t="s">
-        <v>3648</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B498" t="s">
         <v>3649</v>
-      </c>
-      <c r="B498" t="s">
-        <v>3650</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B499" t="s">
         <v>3651</v>
-      </c>
-      <c r="B499" t="s">
-        <v>3652</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="25" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B500" s="26" t="s">
         <v>3944</v>
-      </c>
-      <c r="B500" s="26" t="s">
-        <v>3945</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="48" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B501" s="48" t="s">
         <v>3979</v>
-      </c>
-      <c r="B501" s="48" t="s">
-        <v>3980</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="73" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B502" s="73" t="s">
         <v>4026</v>
-      </c>
-      <c r="B502" s="73" t="s">
-        <v>4027</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="94" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B503" s="94" t="s">
         <v>4064</v>
-      </c>
-      <c r="B503" s="94" t="s">
-        <v>4065</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="95" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B504" s="95" t="s">
         <v>4066</v>
-      </c>
-      <c r="B504" s="95" t="s">
-        <v>4067</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="96" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="B505" s="96" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="97" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="B506" s="97" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="6" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B507" s="6" t="s">
         <v>4070</v>
-      </c>
-      <c r="B507" s="6" t="s">
-        <v>4071</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="6" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B508" s="6" t="s">
         <v>4072</v>
-      </c>
-      <c r="B508" s="6" t="s">
-        <v>4073</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="6" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B509" s="6" t="s">
         <v>4074</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>4075</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="6" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B510" s="6" t="s">
         <v>4076</v>
-      </c>
-      <c r="B510" s="6" t="s">
-        <v>4077</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B511" t="s">
         <v>4080</v>
-      </c>
-      <c r="B511" t="s">
-        <v>4081</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B512" t="s">
         <v>4103</v>
-      </c>
-      <c r="B512" t="s">
-        <v>4104</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B513" t="s">
         <v>4109</v>
-      </c>
-      <c r="B513" t="s">
-        <v>4110</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B514" t="s">
         <v>4111</v>
-      </c>
-      <c r="B514" t="s">
-        <v>4112</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B515" t="s">
         <v>4263</v>
-      </c>
-      <c r="B515" t="s">
-        <v>4264</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B516" t="s">
         <v>4265</v>
-      </c>
-      <c r="B516" t="s">
-        <v>4266</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B517" t="s">
         <v>4267</v>
-      </c>
-      <c r="B517" t="s">
-        <v>4268</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B518" t="s">
         <v>4311</v>
-      </c>
-      <c r="B518" t="s">
-        <v>4312</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B519" t="s">
         <v>4388</v>
-      </c>
-      <c r="B519" t="s">
-        <v>4389</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B520" t="s">
         <v>4390</v>
-      </c>
-      <c r="B520" t="s">
-        <v>4391</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B521" t="s">
         <v>4392</v>
-      </c>
-      <c r="B521" t="s">
-        <v>4393</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B522" t="s">
         <v>4400</v>
-      </c>
-      <c r="B522" t="s">
-        <v>4401</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B523" t="s">
         <v>4402</v>
-      </c>
-      <c r="B523" t="s">
-        <v>4403</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B524" t="s">
         <v>4404</v>
-      </c>
-      <c r="B524" t="s">
-        <v>4405</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -19977,15 +20002,15 @@
         <v>2475</v>
       </c>
       <c r="B525" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B526" t="s">
         <v>4445</v>
-      </c>
-      <c r="B526" t="s">
-        <v>4446</v>
       </c>
     </row>
   </sheetData>
@@ -19996,10 +20021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView topLeftCell="A436" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20338,10 +20363,10 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B42" t="s">
         <v>4353</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4354</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24010,258 +24035,258 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="7" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B501" s="7" t="s">
         <v>3920</v>
-      </c>
-      <c r="B501" s="7" t="s">
-        <v>3921</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="8" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B502" s="9" t="s">
         <v>3922</v>
-      </c>
-      <c r="B502" s="9" t="s">
-        <v>3923</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="10" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B503" s="11" t="s">
         <v>3924</v>
-      </c>
-      <c r="B503" s="11" t="s">
-        <v>3925</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="12" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B504" s="12" t="s">
         <v>3926</v>
-      </c>
-      <c r="B504" s="12" t="s">
-        <v>3927</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="13" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B505" s="14" t="s">
         <v>3928</v>
-      </c>
-      <c r="B505" s="14" t="s">
-        <v>3929</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="15" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B506" s="16" t="s">
         <v>3930</v>
-      </c>
-      <c r="B506" s="16" t="s">
-        <v>3931</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="35" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B507" s="36" t="s">
         <v>3953</v>
-      </c>
-      <c r="B507" s="36" t="s">
-        <v>3954</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="37" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B508" s="37" t="s">
         <v>3955</v>
-      </c>
-      <c r="B508" s="37" t="s">
-        <v>3956</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="38" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B509" s="38" t="s">
         <v>3957</v>
-      </c>
-      <c r="B509" s="38" t="s">
-        <v>3958</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="39" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B510" s="39" t="s">
         <v>3959</v>
-      </c>
-      <c r="B510" s="39" t="s">
-        <v>3960</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="40" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B511" s="40" t="s">
         <v>3961</v>
-      </c>
-      <c r="B511" s="40" t="s">
-        <v>3962</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="41" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B512" s="41" t="s">
         <v>3963</v>
-      </c>
-      <c r="B512" s="41" t="s">
-        <v>3964</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="47" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B513" s="47" t="s">
         <v>3975</v>
-      </c>
-      <c r="B513" s="47" t="s">
-        <v>3976</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="67" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B514" s="67" t="s">
         <v>4015</v>
-      </c>
-      <c r="B514" s="67" t="s">
-        <v>4016</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="68" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B515" s="68" t="s">
         <v>4017</v>
-      </c>
-      <c r="B515" s="68" t="s">
-        <v>4018</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B516" t="s">
         <v>4082</v>
-      </c>
-      <c r="B516" t="s">
-        <v>4083</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="29">
       <c r="A517" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B517" s="2" t="s">
         <v>4105</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>4106</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B518" t="s">
         <v>4107</v>
-      </c>
-      <c r="B518" t="s">
-        <v>4108</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B519" t="s">
         <v>4124</v>
-      </c>
-      <c r="B519" t="s">
-        <v>4125</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B520" t="s">
         <v>4194</v>
-      </c>
-      <c r="B520" t="s">
-        <v>4195</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B521" t="s">
         <v>4196</v>
-      </c>
-      <c r="B521" t="s">
-        <v>4197</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B522" t="s">
         <v>3207</v>
-      </c>
-      <c r="B522" t="s">
-        <v>3208</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B523" t="s">
         <v>4222</v>
-      </c>
-      <c r="B523" t="s">
-        <v>4223</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B524" t="s">
         <v>4232</v>
-      </c>
-      <c r="B524" t="s">
-        <v>4233</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="B525" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B526" t="s">
         <v>4237</v>
-      </c>
-      <c r="B526" t="s">
-        <v>4238</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B527" t="s">
         <v>4239</v>
-      </c>
-      <c r="B527" t="s">
-        <v>4240</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B528" t="s">
         <v>4241</v>
-      </c>
-      <c r="B528" t="s">
-        <v>4242</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B529" t="s">
         <v>4243</v>
-      </c>
-      <c r="B529" t="s">
-        <v>4244</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B530" t="s">
         <v>4248</v>
-      </c>
-      <c r="B530" t="s">
-        <v>4249</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B531" t="s">
         <v>4250</v>
-      </c>
-      <c r="B531" t="s">
-        <v>4251</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B532" t="s">
         <v>4252</v>
-      </c>
-      <c r="B532" t="s">
-        <v>4253</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="29">
@@ -24269,23 +24294,23 @@
         <v>2824</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B534" t="s">
         <v>4284</v>
-      </c>
-      <c r="B534" t="s">
-        <v>4285</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B535" t="s">
         <v>4286</v>
-      </c>
-      <c r="B535" t="s">
-        <v>4287</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -24293,207 +24318,215 @@
         <v>2236</v>
       </c>
       <c r="B536" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B537" t="s">
         <v>4289</v>
-      </c>
-      <c r="B537" t="s">
-        <v>4290</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B538" t="s">
         <v>4295</v>
-      </c>
-      <c r="B538" t="s">
-        <v>4296</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B539" t="s">
         <v>4314</v>
-      </c>
-      <c r="B539" t="s">
-        <v>4315</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B540" t="s">
         <v>4318</v>
-      </c>
-      <c r="B540" t="s">
-        <v>4319</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B541" t="s">
         <v>4320</v>
-      </c>
-      <c r="B541" t="s">
-        <v>4321</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B542" t="s">
         <v>4322</v>
-      </c>
-      <c r="B542" t="s">
-        <v>4323</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="B543" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B544" t="s">
         <v>4341</v>
-      </c>
-      <c r="B544" t="s">
-        <v>4342</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B545" t="s">
         <v>4343</v>
-      </c>
-      <c r="B545" t="s">
-        <v>4344</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B546" t="s">
         <v>4345</v>
-      </c>
-      <c r="B546" t="s">
-        <v>4346</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B547" t="s">
         <v>4355</v>
-      </c>
-      <c r="B547" t="s">
-        <v>4356</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B548" t="s">
         <v>4382</v>
-      </c>
-      <c r="B548" t="s">
-        <v>4383</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B549" t="s">
         <v>4384</v>
-      </c>
-      <c r="B549" t="s">
-        <v>4385</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B550" t="s">
         <v>4394</v>
-      </c>
-      <c r="B550" t="s">
-        <v>4395</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="B551" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B552" t="s">
         <v>4406</v>
-      </c>
-      <c r="B552" t="s">
-        <v>4407</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B553" t="s">
         <v>4416</v>
-      </c>
-      <c r="B553" t="s">
-        <v>4417</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B554" t="s">
         <v>4419</v>
-      </c>
-      <c r="B554" t="s">
-        <v>4420</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B555" t="s">
         <v>4421</v>
-      </c>
-      <c r="B555" t="s">
-        <v>4422</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B556" t="s">
         <v>4423</v>
-      </c>
-      <c r="B556" t="s">
-        <v>4424</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B557" t="s">
         <v>4425</v>
-      </c>
-      <c r="B557" t="s">
-        <v>4426</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B558" t="s">
         <v>4427</v>
-      </c>
-      <c r="B558" t="s">
-        <v>4428</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B559" t="s">
         <v>4429</v>
-      </c>
-      <c r="B559" t="s">
-        <v>4430</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B560" t="s">
         <v>4431</v>
-      </c>
-      <c r="B560" t="s">
-        <v>4432</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B561" t="s">
         <v>4451</v>
       </c>
-      <c r="B561" t="s">
-        <v>4452</v>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B562" t="s">
+        <v>4471</v>
       </c>
     </row>
   </sheetData>
@@ -24507,10 +24540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F26FD-E856-40B6-82AA-B45B8124E039}">
-  <dimension ref="A1:B596"/>
+  <dimension ref="A1:B599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B596" sqref="B596"/>
+    <sheetView topLeftCell="A511" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A526" sqref="A526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25169,7 +25202,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B82" t="s">
         <v>2108</v>
@@ -26076,7 +26109,7 @@
         <v>2330</v>
       </c>
       <c r="B195" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="29">
@@ -26276,7 +26309,7 @@
         <v>2376</v>
       </c>
       <c r="B220" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -28204,7 +28237,7 @@
         <v>2848</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -28513,10 +28546,10 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B500" t="s">
         <v>3870</v>
-      </c>
-      <c r="B500" t="s">
-        <v>3871</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28524,15 +28557,15 @@
         <v>1948</v>
       </c>
       <c r="B501" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B502" t="s">
         <v>3873</v>
-      </c>
-      <c r="B502" t="s">
-        <v>3874</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28540,127 +28573,127 @@
         <v>2895</v>
       </c>
       <c r="B503" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="17" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B504" s="18" t="s">
         <v>3932</v>
-      </c>
-      <c r="B504" s="18" t="s">
-        <v>3933</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="19" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B505" s="19" t="s">
         <v>3934</v>
-      </c>
-      <c r="B505" s="19" t="s">
-        <v>3935</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="20" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B506" s="21" t="s">
         <v>3936</v>
-      </c>
-      <c r="B506" s="21" t="s">
-        <v>3937</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="22" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B507" s="22" t="s">
         <v>3938</v>
-      </c>
-      <c r="B507" s="22" t="s">
-        <v>3939</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="23" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B508" s="23" t="s">
         <v>3940</v>
-      </c>
-      <c r="B508" s="23" t="s">
-        <v>3941</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="24" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B509" s="24" t="s">
         <v>3942</v>
-      </c>
-      <c r="B509" s="24" t="s">
-        <v>3943</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="42" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B510" s="42" t="s">
         <v>3965</v>
-      </c>
-      <c r="B510" s="42" t="s">
-        <v>3966</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="43" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B511" s="43" t="s">
         <v>3967</v>
-      </c>
-      <c r="B511" s="43" t="s">
-        <v>3968</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="77" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B512" s="77" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="78" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B513" s="78" t="s">
         <v>4034</v>
-      </c>
-      <c r="B513" s="78" t="s">
-        <v>4035</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="79" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B514" s="79" t="s">
         <v>4036</v>
-      </c>
-      <c r="B514" s="79" t="s">
-        <v>4037</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="80" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B515" s="80" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="81" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B516" s="81" t="s">
         <v>4039</v>
-      </c>
-      <c r="B516" s="81" t="s">
-        <v>4040</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="82" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B517" s="82" t="s">
         <v>4041</v>
-      </c>
-      <c r="B517" s="82" t="s">
-        <v>4042</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="83" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B518" s="83" t="s">
         <v>4043</v>
-      </c>
-      <c r="B518" s="83" t="s">
-        <v>4044</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28668,503 +28701,503 @@
         <v>2755</v>
       </c>
       <c r="B519" s="84" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="85" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B520" s="85" t="s">
         <v>4046</v>
-      </c>
-      <c r="B520" s="85" t="s">
-        <v>4047</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="86" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B521" s="86" t="s">
         <v>4048</v>
-      </c>
-      <c r="B521" s="86" t="s">
-        <v>4049</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="92" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B522" s="92" t="s">
         <v>4060</v>
-      </c>
-      <c r="B522" s="92" t="s">
-        <v>4061</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="93" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B523" s="93" t="s">
         <v>4062</v>
-      </c>
-      <c r="B523" s="93" t="s">
-        <v>4063</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="6" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B525" t="s">
         <v>4084</v>
-      </c>
-      <c r="B525" t="s">
-        <v>4085</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="29">
       <c r="A526" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B526" s="2" t="s">
         <v>4086</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>4087</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B527" t="s">
         <v>4097</v>
-      </c>
-      <c r="B527" t="s">
-        <v>4098</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B528" t="s">
         <v>4099</v>
-      </c>
-      <c r="B528" t="s">
-        <v>4100</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B529" t="s">
         <v>4101</v>
-      </c>
-      <c r="B529" t="s">
-        <v>4102</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B530" t="s">
         <v>4113</v>
-      </c>
-      <c r="B530" t="s">
-        <v>4114</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B531" t="s">
         <v>4128</v>
-      </c>
-      <c r="B531" t="s">
-        <v>4129</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="B532" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B533" t="s">
         <v>4136</v>
-      </c>
-      <c r="B533" t="s">
-        <v>4137</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B534" t="s">
         <v>4138</v>
-      </c>
-      <c r="B534" t="s">
-        <v>4139</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B535" t="s">
         <v>4148</v>
-      </c>
-      <c r="B535" t="s">
-        <v>4149</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B536" t="s">
         <v>4150</v>
-      </c>
-      <c r="B536" t="s">
-        <v>4151</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="B537" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B538" t="s">
         <v>4153</v>
-      </c>
-      <c r="B538" t="s">
-        <v>4154</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B539" t="s">
         <v>4155</v>
-      </c>
-      <c r="B539" t="s">
-        <v>4156</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B540" t="s">
         <v>4157</v>
-      </c>
-      <c r="B540" t="s">
-        <v>4158</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B541" t="s">
         <v>4181</v>
-      </c>
-      <c r="B541" t="s">
-        <v>4182</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B542" t="s">
         <v>4198</v>
-      </c>
-      <c r="B542" t="s">
-        <v>4199</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B543" t="s">
         <v>4200</v>
-      </c>
-      <c r="B543" t="s">
-        <v>4201</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B544" t="s">
         <v>4202</v>
-      </c>
-      <c r="B544" t="s">
-        <v>4203</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B545" t="s">
         <v>4216</v>
-      </c>
-      <c r="B545" t="s">
-        <v>4217</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B546" t="s">
         <v>4218</v>
-      </c>
-      <c r="B546" t="s">
-        <v>4219</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B547" t="s">
         <v>4220</v>
-      </c>
-      <c r="B547" t="s">
-        <v>4221</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B548" t="s">
         <v>4224</v>
-      </c>
-      <c r="B548" t="s">
-        <v>4225</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B549" t="s">
         <v>4226</v>
-      </c>
-      <c r="B549" t="s">
-        <v>4227</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B550" t="s">
         <v>4228</v>
-      </c>
-      <c r="B550" t="s">
-        <v>4229</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B551" t="s">
         <v>4234</v>
-      </c>
-      <c r="B551" t="s">
-        <v>4235</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B552" t="s">
         <v>4291</v>
-      </c>
-      <c r="B552" t="s">
-        <v>4292</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B553" t="s">
         <v>4293</v>
-      </c>
-      <c r="B553" t="s">
-        <v>4294</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B554" t="s">
         <v>4297</v>
-      </c>
-      <c r="B554" t="s">
-        <v>4298</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B555" t="s">
         <v>4301</v>
-      </c>
-      <c r="B555" t="s">
-        <v>4302</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B556" t="s">
         <v>4303</v>
-      </c>
-      <c r="B556" t="s">
-        <v>4304</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B557" t="s">
         <v>4309</v>
-      </c>
-      <c r="B557" t="s">
-        <v>4310</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B558" t="s">
         <v>4316</v>
-      </c>
-      <c r="B558" t="s">
-        <v>4317</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B559" t="s">
         <v>4325</v>
-      </c>
-      <c r="B559" t="s">
-        <v>4326</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B560" t="s">
         <v>4327</v>
-      </c>
-      <c r="B560" t="s">
-        <v>4328</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B561" t="s">
         <v>4329</v>
-      </c>
-      <c r="B561" t="s">
-        <v>4330</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B562" t="s">
         <v>4331</v>
-      </c>
-      <c r="B562" t="s">
-        <v>4332</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B563" t="s">
         <v>4333</v>
-      </c>
-      <c r="B563" t="s">
-        <v>4334</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B564" t="s">
         <v>4335</v>
-      </c>
-      <c r="B564" t="s">
-        <v>4336</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B565" t="s">
         <v>4337</v>
-      </c>
-      <c r="B565" t="s">
-        <v>4338</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B566" t="s">
         <v>4339</v>
-      </c>
-      <c r="B566" t="s">
-        <v>4340</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B567" t="s">
         <v>4347</v>
-      </c>
-      <c r="B567" t="s">
-        <v>4348</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B568" t="s">
         <v>4351</v>
-      </c>
-      <c r="B568" t="s">
-        <v>4352</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B569" t="s">
         <v>4357</v>
-      </c>
-      <c r="B569" t="s">
-        <v>4358</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B570" t="s">
         <v>4359</v>
-      </c>
-      <c r="B570" t="s">
-        <v>4360</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B571" t="s">
         <v>4361</v>
-      </c>
-      <c r="B571" t="s">
-        <v>4362</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B572" t="s">
         <v>4363</v>
-      </c>
-      <c r="B572" t="s">
-        <v>4364</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B573" t="s">
         <v>4365</v>
-      </c>
-      <c r="B573" t="s">
-        <v>4366</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B574" t="s">
         <v>4367</v>
-      </c>
-      <c r="B574" t="s">
-        <v>4368</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B575" t="s">
         <v>4369</v>
-      </c>
-      <c r="B575" t="s">
-        <v>4370</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B576" t="s">
         <v>4371</v>
-      </c>
-      <c r="B576" t="s">
-        <v>4372</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="B577" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B578" t="s">
         <v>4374</v>
-      </c>
-      <c r="B578" t="s">
-        <v>4375</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B579" t="s">
         <v>4376</v>
-      </c>
-      <c r="B579" t="s">
-        <v>4377</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B580" t="s">
         <v>4378</v>
-      </c>
-      <c r="B580" t="s">
-        <v>4379</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B581" t="s">
         <v>4386</v>
-      </c>
-      <c r="B581" t="s">
-        <v>4387</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -29172,119 +29205,143 @@
         <v>2764</v>
       </c>
       <c r="B582" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B583" t="s">
         <v>4398</v>
-      </c>
-      <c r="B583" t="s">
-        <v>4399</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B584" t="s">
         <v>4410</v>
-      </c>
-      <c r="B584" t="s">
-        <v>4411</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B585" t="s">
         <v>4412</v>
-      </c>
-      <c r="B585" t="s">
-        <v>4413</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B586" t="s">
         <v>4439</v>
-      </c>
-      <c r="B586" t="s">
-        <v>4440</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B587" t="s">
         <v>4443</v>
-      </c>
-      <c r="B587" t="s">
-        <v>4444</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B588" t="s">
         <v>4453</v>
-      </c>
-      <c r="B588" t="s">
-        <v>4454</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B589" t="s">
         <v>4457</v>
-      </c>
-      <c r="B589" t="s">
-        <v>4458</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B590" t="s">
         <v>4459</v>
-      </c>
-      <c r="B590" t="s">
-        <v>4460</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B591" t="s">
         <v>4461</v>
-      </c>
-      <c r="B591" t="s">
-        <v>4462</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B592" t="s">
         <v>4463</v>
-      </c>
-      <c r="B592" t="s">
-        <v>4464</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B593" t="s">
         <v>4465</v>
-      </c>
-      <c r="B593" t="s">
-        <v>4466</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="B594" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B595" t="s">
         <v>4468</v>
-      </c>
-      <c r="B595" t="s">
-        <v>4469</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B596" t="s">
-        <v>4470</v>
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B597" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B598" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B599" t="s">
+        <v>4478</v>
       </c>
     </row>
   </sheetData>
@@ -29298,8 +29355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CE956-A94B-446A-8DB0-7B0E7916BB98}">
   <dimension ref="A1:C639"/>
   <sheetViews>
-    <sheetView topLeftCell="A600" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A618" sqref="A618"/>
+    <sheetView topLeftCell="A492" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29757,68 +29814,68 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="43.5">
       <c r="A57" t="s">
         <v>3008</v>
       </c>
-      <c r="B57" t="s">
-        <v>3009</v>
+      <c r="B57" s="2" t="s">
+        <v>4476</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B58" t="s">
         <v>3010</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3011</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B59" t="s">
         <v>3012</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3013</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B60" t="s">
         <v>3014</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3015</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B61" t="s">
         <v>3016</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3017</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B62" t="s">
         <v>3020</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3021</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B63" t="s">
         <v>3022</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3023</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B64" t="s">
         <v>3024</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -29826,7 +29883,7 @@
         <v>868</v>
       </c>
       <c r="B65" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -29839,114 +29896,114 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B67" t="s">
         <v>3027</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3028</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B68" t="s">
         <v>3029</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3030</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B69" t="s">
         <v>3031</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3032</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B70" t="s">
         <v>3033</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3034</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B71" t="s">
         <v>3035</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3036</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B72" t="s">
         <v>3037</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3038</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B73" t="s">
         <v>3039</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3040</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B74" t="s">
         <v>3041</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3042</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B75" t="s">
         <v>3043</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3044</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B76" t="s">
         <v>3045</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3046</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B77" t="s">
         <v>3047</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3048</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B78" t="s">
         <v>3049</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3050</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B79" t="s">
         <v>3051</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B80" t="s">
         <v>3053</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -29959,178 +30016,178 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B82" t="s">
         <v>3055</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B83" t="s">
         <v>3057</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B84" t="s">
         <v>3059</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3060</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B85" t="s">
         <v>3061</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3062</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B86" t="s">
         <v>3063</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3064</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B87" t="s">
         <v>3065</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3066</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B88" t="s">
         <v>3067</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3068</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B89" t="s">
         <v>3069</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3070</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B90" t="s">
         <v>3071</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3072</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B91" t="s">
         <v>3073</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3074</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B92" t="s">
         <v>3075</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3076</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B93" t="s">
         <v>3077</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3078</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B94" t="s">
         <v>3079</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3080</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B95" t="s">
         <v>3081</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3082</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B96" t="s">
         <v>3083</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3084</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B97" t="s">
         <v>3085</v>
-      </c>
-      <c r="B97" t="s">
-        <v>3086</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B98" t="s">
         <v>3087</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B99" t="s">
         <v>3089</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3090</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B100" t="s">
         <v>3091</v>
-      </c>
-      <c r="B100" t="s">
-        <v>3092</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B101" t="s">
         <v>3093</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3094</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B102" t="s">
         <v>3095</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3096</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B103" t="s">
         <v>3097</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3098</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -30138,626 +30195,626 @@
         <v>2848</v>
       </c>
       <c r="B104" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B105" t="s">
         <v>3100</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3101</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B106" t="s">
         <v>3102</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3103</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B107" t="s">
         <v>3104</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3105</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B108" t="s">
         <v>3106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B109" t="s">
         <v>3108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>3109</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B110" t="s">
         <v>3110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>3111</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B111" t="s">
         <v>3112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>3113</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B112" t="s">
         <v>3114</v>
-      </c>
-      <c r="B112" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B113" t="s">
         <v>3116</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3117</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B114" t="s">
         <v>3118</v>
-      </c>
-      <c r="B114" t="s">
-        <v>3119</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B115" t="s">
         <v>3120</v>
-      </c>
-      <c r="B115" t="s">
-        <v>3121</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B116" t="s">
         <v>3122</v>
-      </c>
-      <c r="B116" t="s">
-        <v>3123</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B117" t="s">
         <v>3124</v>
-      </c>
-      <c r="B117" t="s">
-        <v>3125</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B118" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B119" t="s">
         <v>3127</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B120" t="s">
         <v>3129</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3130</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B121" t="s">
         <v>3131</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3132</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B122" t="s">
         <v>3133</v>
-      </c>
-      <c r="B122" t="s">
-        <v>3134</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B123" t="s">
         <v>3135</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3136</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B124" t="s">
         <v>3137</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3138</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B125" t="s">
         <v>3139</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3140</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B126" t="s">
         <v>3141</v>
-      </c>
-      <c r="B126" t="s">
-        <v>3142</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B127" t="s">
         <v>3143</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B128" t="s">
         <v>3145</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3146</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B129" t="s">
         <v>3147</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3148</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B130" t="s">
         <v>3149</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3150</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B131" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B132" t="s">
         <v>3154</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3155</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B133" t="s">
         <v>3156</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3157</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B134" t="s">
         <v>3158</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B135" t="s">
         <v>3160</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B136" t="s">
         <v>3162</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3163</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B137" t="s">
         <v>3164</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3165</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B138" t="s">
         <v>3166</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B139" t="s">
         <v>3168</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3169</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B140" t="s">
         <v>3170</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3171</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B141" t="s">
         <v>3172</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3173</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B142" t="s">
         <v>3174</v>
-      </c>
-      <c r="B142" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B143" t="s">
         <v>3176</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3177</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B144" t="s">
         <v>3189</v>
-      </c>
-      <c r="B144" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="B145" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B146" t="s">
         <v>3192</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3193</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="B147" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B148" t="s">
         <v>3196</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B149" t="s">
         <v>3198</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3199</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15">
       <c r="A150" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B150" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B151" t="s">
         <v>3201</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3202</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B152" t="s">
         <v>3203</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B153" t="s">
         <v>3205</v>
-      </c>
-      <c r="B153" t="s">
-        <v>3206</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B154" t="s">
         <v>3207</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3208</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B155" t="s">
         <v>3209</v>
-      </c>
-      <c r="B155" t="s">
-        <v>3210</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B156" t="s">
         <v>3211</v>
-      </c>
-      <c r="B156" t="s">
-        <v>3212</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B157" t="s">
         <v>3213</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3214</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B158" t="s">
         <v>3215</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B159" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B160" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B161" t="s">
         <v>3219</v>
-      </c>
-      <c r="B161" t="s">
-        <v>3220</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B162" t="s">
         <v>3221</v>
-      </c>
-      <c r="B162" t="s">
-        <v>3222</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B163" t="s">
         <v>3223</v>
-      </c>
-      <c r="B163" t="s">
-        <v>3224</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B164" t="s">
         <v>3225</v>
-      </c>
-      <c r="B164" t="s">
-        <v>3226</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B165" t="s">
         <v>3227</v>
-      </c>
-      <c r="B165" t="s">
-        <v>3228</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B166" t="s">
         <v>3229</v>
-      </c>
-      <c r="B166" t="s">
-        <v>3230</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B167" t="s">
         <v>3231</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3232</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B168" t="s">
         <v>3233</v>
-      </c>
-      <c r="B168" t="s">
-        <v>3234</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B169" t="s">
         <v>3235</v>
-      </c>
-      <c r="B169" t="s">
-        <v>3236</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="B170" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B171" t="s">
         <v>3238</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3239</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B172" t="s">
         <v>3240</v>
-      </c>
-      <c r="B172" t="s">
-        <v>3241</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B173" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B174" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B175" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B176" t="s">
         <v>3248</v>
-      </c>
-      <c r="B176" t="s">
-        <v>3249</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B177" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B178" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B179" t="s">
         <v>3253</v>
-      </c>
-      <c r="B179" t="s">
-        <v>3254</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B180" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C180" t="s">
         <v>3255</v>
-      </c>
-      <c r="C180" t="s">
-        <v>3256</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B181" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -30765,31 +30822,31 @@
         <v>2502</v>
       </c>
       <c r="B182" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B183" t="s">
         <v>3259</v>
-      </c>
-      <c r="B183" t="s">
-        <v>3260</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="29">
       <c r="A184" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>3261</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>3262</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B185" t="s">
         <v>3263</v>
-      </c>
-      <c r="B185" t="s">
-        <v>3264</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -30797,63 +30854,63 @@
         <v>2599</v>
       </c>
       <c r="B186" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B187" t="s">
         <v>3266</v>
-      </c>
-      <c r="B187" t="s">
-        <v>3267</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B188" t="s">
         <v>3268</v>
-      </c>
-      <c r="B188" t="s">
-        <v>3269</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B189" t="s">
         <v>3270</v>
-      </c>
-      <c r="B189" t="s">
-        <v>3271</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B190" t="s">
         <v>3272</v>
-      </c>
-      <c r="B190" t="s">
-        <v>3273</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B191" t="s">
         <v>3274</v>
-      </c>
-      <c r="B191" t="s">
-        <v>3275</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B192" t="s">
         <v>3276</v>
-      </c>
-      <c r="B192" t="s">
-        <v>3277</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="43.5">
       <c r="A193" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>3278</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>3279</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -30861,63 +30918,63 @@
         <v>2798</v>
       </c>
       <c r="B194" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B195" t="s">
         <v>3281</v>
-      </c>
-      <c r="B195" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B196" t="s">
         <v>3283</v>
-      </c>
-      <c r="B196" t="s">
-        <v>3284</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B197" t="s">
         <v>3285</v>
-      </c>
-      <c r="B197" t="s">
-        <v>3286</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B198" t="s">
         <v>3287</v>
-      </c>
-      <c r="B198" t="s">
-        <v>3288</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B199" t="s">
         <v>3289</v>
-      </c>
-      <c r="B199" t="s">
-        <v>3290</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B200" t="s">
         <v>3291</v>
-      </c>
-      <c r="B200" t="s">
-        <v>3292</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B201" t="s">
         <v>3293</v>
-      </c>
-      <c r="B201" t="s">
-        <v>3294</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -30925,47 +30982,47 @@
         <v>2775</v>
       </c>
       <c r="B202" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B203" t="s">
         <v>3296</v>
-      </c>
-      <c r="B203" t="s">
-        <v>3297</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="29">
       <c r="A204" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>3298</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>3299</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B205" t="s">
         <v>3300</v>
-      </c>
-      <c r="B205" t="s">
-        <v>3301</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B206" t="s">
         <v>3302</v>
-      </c>
-      <c r="B206" t="s">
-        <v>3303</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B207" t="s">
         <v>3304</v>
-      </c>
-      <c r="B207" t="s">
-        <v>3305</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -30973,15 +31030,15 @@
         <v>1944</v>
       </c>
       <c r="B208" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B209" t="s">
         <v>3307</v>
-      </c>
-      <c r="B209" t="s">
-        <v>3308</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -30989,159 +31046,159 @@
         <v>2073</v>
       </c>
       <c r="B210" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B211" t="s">
         <v>3310</v>
-      </c>
-      <c r="B211" t="s">
-        <v>3311</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B212" t="s">
         <v>3312</v>
-      </c>
-      <c r="B212" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B213" t="s">
         <v>3314</v>
-      </c>
-      <c r="B213" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B214" t="s">
         <v>3316</v>
-      </c>
-      <c r="B214" t="s">
-        <v>3317</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B215" t="s">
         <v>3318</v>
-      </c>
-      <c r="B215" t="s">
-        <v>3319</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B216" t="s">
         <v>3320</v>
-      </c>
-      <c r="B216" t="s">
-        <v>3321</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B217" t="s">
         <v>3322</v>
-      </c>
-      <c r="B217" t="s">
-        <v>3323</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B218" t="s">
         <v>3324</v>
-      </c>
-      <c r="B218" t="s">
-        <v>3325</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B219" t="s">
         <v>3326</v>
-      </c>
-      <c r="B219" t="s">
-        <v>3327</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B220" t="s">
         <v>3328</v>
-      </c>
-      <c r="B220" t="s">
-        <v>3329</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B221" t="s">
         <v>3330</v>
-      </c>
-      <c r="B221" t="s">
-        <v>3331</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B222" t="s">
         <v>3332</v>
-      </c>
-      <c r="B222" t="s">
-        <v>3333</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B223" t="s">
         <v>3334</v>
-      </c>
-      <c r="B223" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B224" t="s">
         <v>3336</v>
-      </c>
-      <c r="B224" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B225" t="s">
         <v>3338</v>
-      </c>
-      <c r="B225" t="s">
-        <v>3339</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B226" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="43.5">
       <c r="A227" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>3342</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>3343</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B228" t="s">
         <v>3344</v>
-      </c>
-      <c r="B228" t="s">
-        <v>3345</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B229" t="s">
         <v>3346</v>
-      </c>
-      <c r="B229" t="s">
-        <v>3347</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -31149,15 +31206,15 @@
         <v>2111</v>
       </c>
       <c r="B230" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B231" t="s">
         <v>3349</v>
-      </c>
-      <c r="B231" t="s">
-        <v>3350</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -31165,7 +31222,7 @@
         <v>916</v>
       </c>
       <c r="B232" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -31173,15 +31230,15 @@
         <v>2647</v>
       </c>
       <c r="B233" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B234" t="s">
         <v>3353</v>
-      </c>
-      <c r="B234" t="s">
-        <v>3354</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -31189,31 +31246,31 @@
         <v>340</v>
       </c>
       <c r="B235" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B236" t="s">
         <v>3356</v>
-      </c>
-      <c r="B236" t="s">
-        <v>3357</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B237" t="s">
         <v>3358</v>
-      </c>
-      <c r="B237" t="s">
-        <v>3359</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B238" t="s">
         <v>3360</v>
-      </c>
-      <c r="B238" t="s">
-        <v>3361</v>
       </c>
       <c r="C238" t="s">
         <v>1186</v>
@@ -31221,122 +31278,122 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B239" t="s">
         <v>3362</v>
-      </c>
-      <c r="B239" t="s">
-        <v>3363</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="29">
       <c r="A240" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>3364</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>3365</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B241" t="s">
         <v>3366</v>
-      </c>
-      <c r="B241" t="s">
-        <v>3367</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B242" t="s">
         <v>3368</v>
-      </c>
-      <c r="B242" t="s">
-        <v>3369</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B243" t="s">
         <v>3370</v>
-      </c>
-      <c r="B243" t="s">
-        <v>3371</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B244" t="s">
         <v>3372</v>
-      </c>
-      <c r="B244" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B245" t="s">
         <v>3374</v>
-      </c>
-      <c r="B245" t="s">
-        <v>3375</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B246" t="s">
         <v>3376</v>
-      </c>
-      <c r="B246" t="s">
-        <v>3377</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B247" t="s">
         <v>3378</v>
-      </c>
-      <c r="B247" t="s">
-        <v>3379</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="29">
       <c r="A248" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>3380</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>3381</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B249" t="s">
         <v>3382</v>
-      </c>
-      <c r="B249" t="s">
-        <v>3383</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B250" t="s">
         <v>3384</v>
-      </c>
-      <c r="B250" t="s">
-        <v>3385</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B251" t="s">
         <v>3386</v>
-      </c>
-      <c r="B251" t="s">
-        <v>3387</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B252" t="s">
         <v>3388</v>
-      </c>
-      <c r="B252" t="s">
-        <v>3389</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="29">
       <c r="A253" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>3390</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>3391</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -31344,95 +31401,95 @@
         <v>1028</v>
       </c>
       <c r="B254" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B255" t="s">
         <v>3393</v>
-      </c>
-      <c r="B255" t="s">
-        <v>3394</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B256" t="s">
         <v>3395</v>
-      </c>
-      <c r="B256" t="s">
-        <v>3396</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B258" t="s">
         <v>3398</v>
-      </c>
-      <c r="B258" t="s">
-        <v>3399</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B259" t="s">
         <v>3400</v>
-      </c>
-      <c r="B259" t="s">
-        <v>3401</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B260" t="s">
         <v>3402</v>
-      </c>
-      <c r="B260" t="s">
-        <v>3403</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="29">
       <c r="A261" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>3404</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>3405</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B262" t="s">
         <v>3406</v>
-      </c>
-      <c r="B262" t="s">
-        <v>3407</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B263" t="s">
         <v>3408</v>
-      </c>
-      <c r="B263" t="s">
-        <v>3409</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B264" t="s">
         <v>3410</v>
-      </c>
-      <c r="B264" t="s">
-        <v>3411</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="29">
       <c r="A265" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>3412</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>3413</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -31440,55 +31497,55 @@
         <v>2609</v>
       </c>
       <c r="B266" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B267" t="s">
         <v>3415</v>
-      </c>
-      <c r="B267" t="s">
-        <v>3416</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B268" t="s">
         <v>3417</v>
-      </c>
-      <c r="B268" t="s">
-        <v>3418</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B269" t="s">
         <v>3419</v>
-      </c>
-      <c r="B269" t="s">
-        <v>3420</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B270" t="s">
         <v>3421</v>
-      </c>
-      <c r="B270" t="s">
-        <v>3422</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B271" t="s">
         <v>3423</v>
-      </c>
-      <c r="B271" t="s">
-        <v>3424</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B272" t="s">
         <v>3425</v>
-      </c>
-      <c r="B272" t="s">
-        <v>3426</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -31496,7 +31553,7 @@
         <v>2879</v>
       </c>
       <c r="B273" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -31504,7 +31561,7 @@
         <v>2029</v>
       </c>
       <c r="B274" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="29">
@@ -31512,111 +31569,111 @@
         <v>2031</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B276" t="s">
         <v>3430</v>
-      </c>
-      <c r="B276" t="s">
-        <v>3431</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B277" t="s">
         <v>3432</v>
-      </c>
-      <c r="B277" t="s">
-        <v>3433</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="29">
       <c r="A278" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>3434</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>3435</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B279" t="s">
         <v>3436</v>
-      </c>
-      <c r="B279" t="s">
-        <v>3437</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B280" t="s">
         <v>3440</v>
-      </c>
-      <c r="B280" t="s">
-        <v>3441</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B281" t="s">
         <v>3438</v>
-      </c>
-      <c r="B281" t="s">
-        <v>3439</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B282" t="s">
         <v>3442</v>
-      </c>
-      <c r="B282" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B283" t="s">
         <v>3444</v>
-      </c>
-      <c r="B283" t="s">
-        <v>3445</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B284" t="s">
         <v>3446</v>
-      </c>
-      <c r="B284" t="s">
-        <v>3447</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B285" t="s">
         <v>3448</v>
-      </c>
-      <c r="B285" t="s">
-        <v>3449</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B286" t="s">
         <v>3450</v>
-      </c>
-      <c r="B286" t="s">
-        <v>3451</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B287" t="s">
         <v>3452</v>
-      </c>
-      <c r="B287" t="s">
-        <v>3453</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B288" t="s">
         <v>3454</v>
-      </c>
-      <c r="B288" t="s">
-        <v>3455</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -31624,7 +31681,7 @@
         <v>1661</v>
       </c>
       <c r="B289" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -31632,15 +31689,15 @@
         <v>1186</v>
       </c>
       <c r="B290" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B291" t="s">
         <v>3458</v>
-      </c>
-      <c r="B291" t="s">
-        <v>3459</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -31648,15 +31705,15 @@
         <v>2182</v>
       </c>
       <c r="B292" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B293" t="s">
         <v>3461</v>
-      </c>
-      <c r="B293" t="s">
-        <v>3462</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="43.5">
@@ -31664,79 +31721,79 @@
         <v>2693</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B295" t="s">
         <v>3464</v>
-      </c>
-      <c r="B295" t="s">
-        <v>3465</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B296" t="s">
         <v>3466</v>
-      </c>
-      <c r="B296" t="s">
-        <v>3467</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="29">
       <c r="A297" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>3468</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>3469</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B298" t="s">
         <v>3470</v>
-      </c>
-      <c r="B298" t="s">
-        <v>3471</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B299" t="s">
         <v>3472</v>
-      </c>
-      <c r="B299" t="s">
-        <v>3473</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="29">
       <c r="A300" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>3474</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>3475</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B301" t="s">
         <v>3476</v>
-      </c>
-      <c r="B301" t="s">
-        <v>3477</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B302" t="s">
         <v>3478</v>
-      </c>
-      <c r="B302" t="s">
-        <v>3479</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B303" t="s">
         <v>3480</v>
-      </c>
-      <c r="B303" t="s">
-        <v>3481</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -31744,151 +31801,151 @@
         <v>1131</v>
       </c>
       <c r="B304" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B305" t="s">
         <v>3483</v>
-      </c>
-      <c r="B305" t="s">
-        <v>3484</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B306" t="s">
         <v>3485</v>
-      </c>
-      <c r="B306" t="s">
-        <v>3486</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B307" t="s">
         <v>3487</v>
-      </c>
-      <c r="B307" t="s">
-        <v>3488</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="29">
       <c r="A308" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>3489</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>3490</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="29">
       <c r="A309" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>3491</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>3492</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B310" t="s">
         <v>3493</v>
-      </c>
-      <c r="B310" t="s">
-        <v>3494</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B311" t="s">
         <v>3495</v>
-      </c>
-      <c r="B311" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B312" t="s">
         <v>3497</v>
-      </c>
-      <c r="B312" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B313" t="s">
         <v>3499</v>
-      </c>
-      <c r="B313" t="s">
-        <v>3500</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="29">
       <c r="A314" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B315" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B316" t="s">
         <v>3505</v>
-      </c>
-      <c r="B316" t="s">
-        <v>3506</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B317" t="s">
         <v>3507</v>
-      </c>
-      <c r="B317" t="s">
-        <v>3508</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B318" t="s">
         <v>3509</v>
-      </c>
-      <c r="B318" t="s">
-        <v>3510</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B319" t="s">
         <v>3511</v>
-      </c>
-      <c r="B319" t="s">
-        <v>3512</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B320" t="s">
         <v>3513</v>
-      </c>
-      <c r="B320" t="s">
-        <v>3514</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B321" t="s">
         <v>3515</v>
-      </c>
-      <c r="B321" t="s">
-        <v>3516</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B322" t="s">
         <v>3517</v>
-      </c>
-      <c r="B322" t="s">
-        <v>3518</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -31896,79 +31953,79 @@
         <v>1586</v>
       </c>
       <c r="B323" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B324" t="s">
         <v>3520</v>
-      </c>
-      <c r="B324" t="s">
-        <v>3521</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B325" t="s">
         <v>3522</v>
-      </c>
-      <c r="B325" t="s">
-        <v>3523</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B326" t="s">
         <v>3524</v>
-      </c>
-      <c r="B326" t="s">
-        <v>3525</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B327" t="s">
         <v>3526</v>
-      </c>
-      <c r="B327" t="s">
-        <v>3527</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B328" t="s">
         <v>3528</v>
-      </c>
-      <c r="B328" t="s">
-        <v>3529</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B329" t="s">
         <v>3530</v>
-      </c>
-      <c r="B329" t="s">
-        <v>3531</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B330" t="s">
         <v>3532</v>
-      </c>
-      <c r="B330" t="s">
-        <v>3533</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="29">
       <c r="A331" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>3534</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>3535</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B332" t="s">
         <v>3536</v>
-      </c>
-      <c r="B332" t="s">
-        <v>3537</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -31976,103 +32033,103 @@
         <v>2629</v>
       </c>
       <c r="B333" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B334" t="s">
         <v>3539</v>
-      </c>
-      <c r="B334" t="s">
-        <v>3540</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B335" t="s">
         <v>3541</v>
-      </c>
-      <c r="B335" t="s">
-        <v>3542</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B336" t="s">
         <v>3543</v>
-      </c>
-      <c r="B336" t="s">
-        <v>3544</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B337" t="s">
         <v>3545</v>
-      </c>
-      <c r="B337" t="s">
-        <v>3546</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B338" t="s">
         <v>3547</v>
-      </c>
-      <c r="B338" t="s">
-        <v>3548</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B339" t="s">
         <v>3549</v>
-      </c>
-      <c r="B339" t="s">
-        <v>3550</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B340" t="s">
         <v>3551</v>
-      </c>
-      <c r="B340" t="s">
-        <v>3552</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B341" t="s">
         <v>3553</v>
-      </c>
-      <c r="B341" t="s">
-        <v>3554</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B342" t="s">
         <v>3555</v>
-      </c>
-      <c r="B342" t="s">
-        <v>3556</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B343" t="s">
         <v>3557</v>
-      </c>
-      <c r="B343" t="s">
-        <v>3558</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B344" t="s">
         <v>3559</v>
-      </c>
-      <c r="B344" t="s">
-        <v>3560</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B345" t="s">
         <v>3561</v>
-      </c>
-      <c r="B345" t="s">
-        <v>3562</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -32080,63 +32137,63 @@
         <v>2170</v>
       </c>
       <c r="B346" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B347" t="s">
         <v>3564</v>
-      </c>
-      <c r="B347" t="s">
-        <v>3565</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B348" t="s">
         <v>3566</v>
-      </c>
-      <c r="B348" t="s">
-        <v>3567</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="29">
       <c r="A349" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>3568</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>3569</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="29">
       <c r="A350" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>3570</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>3571</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B351" t="s">
         <v>3572</v>
-      </c>
-      <c r="B351" t="s">
-        <v>3573</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B352" t="s">
         <v>3574</v>
-      </c>
-      <c r="B352" t="s">
-        <v>3575</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B353" t="s">
         <v>3576</v>
-      </c>
-      <c r="B353" t="s">
-        <v>3577</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -32144,103 +32201,103 @@
         <v>1787</v>
       </c>
       <c r="B354" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B355" t="s">
         <v>3579</v>
-      </c>
-      <c r="B355" t="s">
-        <v>3580</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B356" t="s">
         <v>3581</v>
-      </c>
-      <c r="B356" t="s">
-        <v>3582</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B357" t="s">
         <v>3583</v>
-      </c>
-      <c r="B357" t="s">
-        <v>3584</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B358" t="s">
         <v>3585</v>
-      </c>
-      <c r="B358" t="s">
-        <v>3586</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B359" t="s">
         <v>3587</v>
-      </c>
-      <c r="B359" t="s">
-        <v>3588</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B360" t="s">
         <v>3589</v>
-      </c>
-      <c r="B360" t="s">
-        <v>3590</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B361" t="s">
         <v>3591</v>
-      </c>
-      <c r="B361" t="s">
-        <v>3592</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B362" t="s">
         <v>3593</v>
-      </c>
-      <c r="B362" t="s">
-        <v>3594</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B363" t="s">
         <v>3595</v>
-      </c>
-      <c r="B363" t="s">
-        <v>3596</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B364" t="s">
         <v>3597</v>
-      </c>
-      <c r="B364" t="s">
-        <v>3598</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B365" t="s">
         <v>3599</v>
-      </c>
-      <c r="B365" t="s">
-        <v>3600</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B366" t="s">
         <v>3601</v>
-      </c>
-      <c r="B366" t="s">
-        <v>3602</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -32248,23 +32305,23 @@
         <v>2848</v>
       </c>
       <c r="B367" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="29">
       <c r="A368" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>3604</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>3605</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B369" t="s">
         <v>3606</v>
-      </c>
-      <c r="B369" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -32272,31 +32329,31 @@
         <v>2174</v>
       </c>
       <c r="B370" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="43.5">
       <c r="A371" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>3609</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>3610</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B372" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B373" t="s">
         <v>3612</v>
-      </c>
-      <c r="B373" t="s">
-        <v>3613</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -32304,183 +32361,183 @@
         <v>2816</v>
       </c>
       <c r="B374" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="29">
       <c r="A375" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>3615</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>3616</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B376" t="s">
         <v>3617</v>
-      </c>
-      <c r="B376" t="s">
-        <v>3618</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B377" t="s">
         <v>3619</v>
-      </c>
-      <c r="B377" t="s">
-        <v>3620</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B378" t="s">
         <v>3621</v>
-      </c>
-      <c r="B378" t="s">
-        <v>3622</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B379" t="s">
         <v>3623</v>
-      </c>
-      <c r="B379" t="s">
-        <v>3624</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B380" t="s">
         <v>3625</v>
-      </c>
-      <c r="B380" t="s">
-        <v>3626</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B381" t="s">
         <v>3627</v>
-      </c>
-      <c r="B381" t="s">
-        <v>3628</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B382" t="s">
         <v>3629</v>
-      </c>
-      <c r="B382" t="s">
-        <v>3630</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B383" t="s">
         <v>3631</v>
-      </c>
-      <c r="B383" t="s">
-        <v>3632</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B384" t="s">
         <v>3633</v>
-      </c>
-      <c r="B384" t="s">
-        <v>3634</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="43.5">
       <c r="A385" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>3635</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>3636</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B386" t="s">
         <v>3637</v>
-      </c>
-      <c r="B386" t="s">
-        <v>3638</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B387" t="s">
         <v>3639</v>
-      </c>
-      <c r="B387" t="s">
-        <v>3640</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B388" t="s">
         <v>3641</v>
-      </c>
-      <c r="B388" t="s">
-        <v>3642</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B389" t="s">
         <v>3643</v>
-      </c>
-      <c r="B389" t="s">
-        <v>3644</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B390" t="s">
         <v>3645</v>
-      </c>
-      <c r="B390" t="s">
-        <v>3646</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B391" t="s">
         <v>3653</v>
-      </c>
-      <c r="B391" t="s">
-        <v>3654</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B392" t="s">
         <v>3655</v>
-      </c>
-      <c r="B392" t="s">
-        <v>3656</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B393" t="s">
         <v>3657</v>
-      </c>
-      <c r="B393" t="s">
-        <v>3658</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="29">
       <c r="A394" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>3659</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>3660</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B395" t="s">
         <v>3661</v>
-      </c>
-      <c r="B395" t="s">
-        <v>3662</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B396" t="s">
         <v>3663</v>
-      </c>
-      <c r="B396" t="s">
-        <v>3664</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -32488,7 +32545,7 @@
         <v>1220</v>
       </c>
       <c r="B397" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -32496,103 +32553,103 @@
         <v>2138</v>
       </c>
       <c r="B398" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B399" t="s">
         <v>3667</v>
-      </c>
-      <c r="B399" t="s">
-        <v>3668</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B400" t="s">
         <v>3669</v>
-      </c>
-      <c r="B400" t="s">
-        <v>3670</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B401" t="s">
         <v>3671</v>
-      </c>
-      <c r="B401" t="s">
-        <v>3672</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B402" t="s">
         <v>3673</v>
-      </c>
-      <c r="B402" t="s">
-        <v>3674</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B403" t="s">
         <v>3675</v>
-      </c>
-      <c r="B403" t="s">
-        <v>3676</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B404" t="s">
         <v>3677</v>
-      </c>
-      <c r="B404" t="s">
-        <v>3678</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B405" t="s">
         <v>3679</v>
-      </c>
-      <c r="B405" t="s">
-        <v>3680</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="29">
       <c r="A406" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>3681</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>3682</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B407" t="s">
         <v>3683</v>
-      </c>
-      <c r="B407" t="s">
-        <v>3684</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B408" t="s">
         <v>3685</v>
-      </c>
-      <c r="B408" t="s">
-        <v>3686</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B409" t="s">
         <v>3687</v>
-      </c>
-      <c r="B409" t="s">
-        <v>3688</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B410" t="s">
         <v>3689</v>
-      </c>
-      <c r="B410" t="s">
-        <v>3690</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -32600,167 +32657,167 @@
         <v>2903</v>
       </c>
       <c r="B411" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B412" t="s">
         <v>3692</v>
-      </c>
-      <c r="B412" t="s">
-        <v>3693</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B413" t="s">
         <v>3694</v>
-      </c>
-      <c r="B413" t="s">
-        <v>3695</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B414" t="s">
         <v>3696</v>
-      </c>
-      <c r="B414" t="s">
-        <v>3697</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B415" t="s">
         <v>3698</v>
-      </c>
-      <c r="B415" t="s">
-        <v>3699</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B416" t="s">
         <v>3700</v>
-      </c>
-      <c r="B416" t="s">
-        <v>3701</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B417" t="s">
         <v>3702</v>
-      </c>
-      <c r="B417" t="s">
-        <v>3703</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B418" t="s">
         <v>3704</v>
-      </c>
-      <c r="B418" t="s">
-        <v>3705</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B419" t="s">
         <v>3706</v>
-      </c>
-      <c r="B419" t="s">
-        <v>3707</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B420" t="s">
         <v>3708</v>
-      </c>
-      <c r="B420" t="s">
-        <v>3709</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="43.5">
       <c r="A421" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>3710</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>3711</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="29">
       <c r="A422" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>3712</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>3713</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B423" t="s">
         <v>3714</v>
-      </c>
-      <c r="B423" t="s">
-        <v>3715</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B424" t="s">
         <v>3716</v>
-      </c>
-      <c r="B424" t="s">
-        <v>3717</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B425" t="s">
         <v>3718</v>
-      </c>
-      <c r="B425" t="s">
-        <v>3719</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B426" t="s">
         <v>3720</v>
-      </c>
-      <c r="B426" t="s">
-        <v>3721</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B427" t="s">
         <v>3722</v>
-      </c>
-      <c r="B427" t="s">
-        <v>3723</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B428" t="s">
         <v>3724</v>
-      </c>
-      <c r="B428" t="s">
-        <v>3725</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B429" t="s">
         <v>3726</v>
-      </c>
-      <c r="B429" t="s">
-        <v>3727</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B430" t="s">
         <v>3728</v>
-      </c>
-      <c r="B430" t="s">
-        <v>3729</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B431" t="s">
         <v>3730</v>
-      </c>
-      <c r="B431" t="s">
-        <v>3731</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="29">
@@ -32768,183 +32825,183 @@
         <v>2024</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B433" t="s">
         <v>3733</v>
-      </c>
-      <c r="B433" t="s">
-        <v>3734</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B434" t="s">
         <v>3735</v>
-      </c>
-      <c r="B434" t="s">
-        <v>3736</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B435" t="s">
         <v>3737</v>
-      </c>
-      <c r="B435" t="s">
-        <v>3738</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B436" t="s">
         <v>3739</v>
-      </c>
-      <c r="B436" t="s">
-        <v>3740</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="29">
       <c r="A437" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>3741</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>3742</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B438" t="s">
         <v>3743</v>
-      </c>
-      <c r="B438" t="s">
-        <v>3744</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B439" t="s">
         <v>3745</v>
-      </c>
-      <c r="B439" t="s">
-        <v>3746</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B440" t="s">
         <v>3253</v>
-      </c>
-      <c r="B440" t="s">
-        <v>3254</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B441" t="s">
         <v>3747</v>
-      </c>
-      <c r="B441" t="s">
-        <v>3748</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B442" t="s">
         <v>3749</v>
-      </c>
-      <c r="B442" t="s">
-        <v>3750</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B443" t="s">
         <v>3751</v>
-      </c>
-      <c r="B443" t="s">
-        <v>3752</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B444" t="s">
         <v>3753</v>
-      </c>
-      <c r="B444" t="s">
-        <v>3754</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B445" t="s">
         <v>3755</v>
-      </c>
-      <c r="B445" t="s">
-        <v>3756</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B446" t="s">
         <v>3757</v>
-      </c>
-      <c r="B446" t="s">
-        <v>3758</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B447" t="s">
         <v>3759</v>
-      </c>
-      <c r="B447" t="s">
-        <v>3760</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B448" t="s">
         <v>3761</v>
-      </c>
-      <c r="B448" t="s">
-        <v>3762</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B449" t="s">
         <v>3763</v>
-      </c>
-      <c r="B449" t="s">
-        <v>3764</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="29">
       <c r="A450" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>3765</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>3766</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B451" t="s">
         <v>3767</v>
-      </c>
-      <c r="B451" t="s">
-        <v>3768</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B452" t="s">
         <v>3769</v>
-      </c>
-      <c r="B452" t="s">
-        <v>3770</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B453" t="s">
         <v>3771</v>
-      </c>
-      <c r="B453" t="s">
-        <v>3772</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B454" t="s">
         <v>3773</v>
-      </c>
-      <c r="B454" t="s">
-        <v>3774</v>
       </c>
       <c r="C454" t="s">
         <v>90</v>
@@ -32952,146 +33009,146 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B455" t="s">
         <v>3775</v>
-      </c>
-      <c r="B455" t="s">
-        <v>3776</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="B456" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B457" t="s">
         <v>3778</v>
-      </c>
-      <c r="B457" t="s">
-        <v>3779</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B458" t="s">
         <v>3780</v>
-      </c>
-      <c r="B458" t="s">
-        <v>3781</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B459" t="s">
         <v>3782</v>
-      </c>
-      <c r="B459" t="s">
-        <v>3783</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B460" t="s">
         <v>3784</v>
-      </c>
-      <c r="B460" t="s">
-        <v>3785</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B461" t="s">
         <v>3786</v>
-      </c>
-      <c r="B461" t="s">
-        <v>3787</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B462" t="s">
         <v>3788</v>
-      </c>
-      <c r="B462" t="s">
-        <v>3789</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B463" t="s">
         <v>3790</v>
-      </c>
-      <c r="B463" t="s">
-        <v>3791</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B464" t="s">
         <v>3792</v>
-      </c>
-      <c r="B464" t="s">
-        <v>3793</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B465" t="s">
         <v>3794</v>
-      </c>
-      <c r="B465" t="s">
-        <v>3795</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B466" t="s">
         <v>3796</v>
-      </c>
-      <c r="B466" t="s">
-        <v>3797</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="B467" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B468" t="s">
         <v>3799</v>
-      </c>
-      <c r="B468" t="s">
-        <v>3800</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B469" t="s">
         <v>3801</v>
-      </c>
-      <c r="B469" t="s">
-        <v>3802</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B470" t="s">
         <v>3803</v>
-      </c>
-      <c r="B470" t="s">
-        <v>3804</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B471" t="s">
         <v>3805</v>
-      </c>
-      <c r="B471" t="s">
-        <v>3806</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="29">
       <c r="A472" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>3807</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>3808</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -33099,95 +33156,95 @@
         <v>1679</v>
       </c>
       <c r="B473" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B474" t="s">
         <v>3810</v>
-      </c>
-      <c r="B474" t="s">
-        <v>3811</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B475" t="s">
         <v>3812</v>
-      </c>
-      <c r="B475" t="s">
-        <v>3813</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B476" t="s">
         <v>3814</v>
-      </c>
-      <c r="B476" t="s">
-        <v>3815</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B477" t="s">
         <v>3816</v>
-      </c>
-      <c r="B477" t="s">
-        <v>3817</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B478" t="s">
         <v>3818</v>
-      </c>
-      <c r="B478" t="s">
-        <v>3819</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B479" t="s">
         <v>3820</v>
-      </c>
-      <c r="B479" t="s">
-        <v>3821</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B480" t="s">
         <v>3822</v>
-      </c>
-      <c r="B480" t="s">
-        <v>3823</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B481" t="s">
         <v>3824</v>
-      </c>
-      <c r="B481" t="s">
-        <v>3825</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B482" t="s">
         <v>3826</v>
-      </c>
-      <c r="B482" t="s">
-        <v>3827</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B483" t="s">
         <v>3828</v>
-      </c>
-      <c r="B483" t="s">
-        <v>3829</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B484" t="s">
         <v>3830</v>
-      </c>
-      <c r="B484" t="s">
-        <v>3831</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="29">
@@ -33195,55 +33252,55 @@
         <v>2691</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B486" t="s">
         <v>3833</v>
-      </c>
-      <c r="B486" t="s">
-        <v>3834</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B487" t="s">
         <v>3835</v>
-      </c>
-      <c r="B487" t="s">
-        <v>3836</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="29">
       <c r="A488" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>3837</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>3838</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B489" t="s">
         <v>3839</v>
-      </c>
-      <c r="B489" t="s">
-        <v>3840</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B490" t="s">
         <v>3841</v>
-      </c>
-      <c r="B490" t="s">
-        <v>3842</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B491" t="s">
         <v>3843</v>
-      </c>
-      <c r="B491" t="s">
-        <v>3844</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -33251,47 +33308,47 @@
         <v>1785</v>
       </c>
       <c r="B492" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B493" t="s">
         <v>3846</v>
-      </c>
-      <c r="B493" t="s">
-        <v>3847</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B494" t="s">
         <v>3848</v>
-      </c>
-      <c r="B494" t="s">
-        <v>3849</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B495" t="s">
         <v>3850</v>
-      </c>
-      <c r="B495" t="s">
-        <v>3851</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B496" t="s">
         <v>3852</v>
-      </c>
-      <c r="B496" t="s">
-        <v>3853</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B497" t="s">
         <v>3854</v>
-      </c>
-      <c r="B497" t="s">
-        <v>3855</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -33299,7 +33356,7 @@
         <v>2735</v>
       </c>
       <c r="B498" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -33307,31 +33364,31 @@
         <v>2846</v>
       </c>
       <c r="B499" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B500" t="s">
         <v>3858</v>
-      </c>
-      <c r="B500" t="s">
-        <v>3859</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B501" t="s">
         <v>3860</v>
-      </c>
-      <c r="B501" t="s">
-        <v>3861</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B502" t="s">
         <v>3862</v>
-      </c>
-      <c r="B502" t="s">
-        <v>3863</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -33339,7 +33396,7 @@
         <v>1669</v>
       </c>
       <c r="B503" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -33347,79 +33404,79 @@
         <v>1857</v>
       </c>
       <c r="B504" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B505" t="s">
         <v>3866</v>
-      </c>
-      <c r="B505" t="s">
-        <v>3867</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B506" t="s">
         <v>3868</v>
-      </c>
-      <c r="B506" t="s">
-        <v>3869</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B507" t="s">
         <v>3876</v>
-      </c>
-      <c r="B507" t="s">
-        <v>3877</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B508" t="s">
         <v>3878</v>
-      </c>
-      <c r="B508" t="s">
-        <v>3879</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B509" t="s">
         <v>3880</v>
-      </c>
-      <c r="B509" t="s">
-        <v>3881</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B510" t="s">
         <v>3882</v>
-      </c>
-      <c r="B510" t="s">
-        <v>3883</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B511" t="s">
         <v>3884</v>
-      </c>
-      <c r="B511" t="s">
-        <v>3885</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B512" t="s">
         <v>3886</v>
-      </c>
-      <c r="B512" t="s">
-        <v>3887</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B513" t="s">
         <v>3888</v>
-      </c>
-      <c r="B513" t="s">
-        <v>3889</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -33427,87 +33484,87 @@
         <v>1470</v>
       </c>
       <c r="B514" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B515" t="s">
         <v>3891</v>
-      </c>
-      <c r="B515" t="s">
-        <v>3892</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="29">
       <c r="A516" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B516" s="2" t="s">
         <v>3893</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>3894</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B517" t="s">
         <v>3895</v>
-      </c>
-      <c r="B517" t="s">
-        <v>3896</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B518" t="s">
         <v>3897</v>
-      </c>
-      <c r="B518" t="s">
-        <v>3898</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B519" t="s">
         <v>3899</v>
-      </c>
-      <c r="B519" t="s">
-        <v>3900</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B520" t="s">
         <v>3901</v>
-      </c>
-      <c r="B520" t="s">
-        <v>3902</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B521" t="s">
         <v>3903</v>
-      </c>
-      <c r="B521" t="s">
-        <v>3904</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B522" t="s">
         <v>3905</v>
-      </c>
-      <c r="B522" t="s">
-        <v>3906</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B523" t="s">
         <v>3907</v>
-      </c>
-      <c r="B523" t="s">
-        <v>3908</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B524" t="s">
         <v>3909</v>
-      </c>
-      <c r="B524" t="s">
-        <v>3910</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -33515,247 +33572,247 @@
         <v>2070</v>
       </c>
       <c r="B525" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B526" t="s">
         <v>3912</v>
-      </c>
-      <c r="B526" t="s">
-        <v>3913</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B527" t="s">
         <v>3914</v>
-      </c>
-      <c r="B527" t="s">
-        <v>3915</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B528" t="s">
         <v>3916</v>
-      </c>
-      <c r="B528" t="s">
-        <v>3917</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B529" t="s">
         <v>3918</v>
-      </c>
-      <c r="B529" t="s">
-        <v>3919</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="27" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B530" s="28" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="29" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B531" s="30" t="s">
         <v>3947</v>
-      </c>
-      <c r="B531" s="30" t="s">
-        <v>3948</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="31" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B532" s="32" t="s">
         <v>3949</v>
-      </c>
-      <c r="B532" s="32" t="s">
-        <v>3950</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="33" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B533" s="34" t="s">
         <v>3951</v>
-      </c>
-      <c r="B533" s="34" t="s">
-        <v>3952</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="44" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B534" s="44" t="s">
         <v>3969</v>
-      </c>
-      <c r="B534" s="44" t="s">
-        <v>3970</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="45" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B535" s="45" t="s">
         <v>3971</v>
-      </c>
-      <c r="B535" s="45" t="s">
-        <v>3972</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="46" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B536" s="46" t="s">
         <v>3973</v>
-      </c>
-      <c r="B536" s="46" t="s">
-        <v>3974</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="49" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B537" s="49" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="50" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B538" s="50" t="s">
         <v>3982</v>
-      </c>
-      <c r="B538" s="50" t="s">
-        <v>3983</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="51" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B539" s="51" t="s">
         <v>3984</v>
-      </c>
-      <c r="B539" s="51" t="s">
-        <v>3985</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="52" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B540" s="52" t="s">
         <v>3986</v>
-      </c>
-      <c r="B540" s="52" t="s">
-        <v>3987</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="53" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B541" s="53" t="s">
         <v>3988</v>
-      </c>
-      <c r="B541" s="53" t="s">
-        <v>3989</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="54" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B542" s="54" t="s">
         <v>3990</v>
-      </c>
-      <c r="B542" s="54" t="s">
-        <v>3991</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="55" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B543" s="55" t="s">
         <v>3992</v>
-      </c>
-      <c r="B543" s="55" t="s">
-        <v>3993</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="56" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B544" s="56" t="s">
         <v>3994</v>
-      </c>
-      <c r="B544" s="56" t="s">
-        <v>3995</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="57" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B545" s="57" t="s">
         <v>3996</v>
-      </c>
-      <c r="B545" s="57" t="s">
-        <v>3997</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="58" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B546" s="58" t="s">
         <v>3998</v>
-      </c>
-      <c r="B546" s="58" t="s">
-        <v>3999</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="59" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B547" s="59" t="s">
         <v>4000</v>
-      </c>
-      <c r="B547" s="59" t="s">
-        <v>4001</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="60" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B548" s="60" t="s">
         <v>4002</v>
-      </c>
-      <c r="B548" s="60" t="s">
-        <v>4003</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="61" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B549" s="61" t="s">
         <v>4004</v>
-      </c>
-      <c r="B549" s="61" t="s">
-        <v>4005</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="62" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B550" s="62" t="s">
         <v>4006</v>
-      </c>
-      <c r="B550" s="62" t="s">
-        <v>4007</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="63" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B551" s="63" t="s">
         <v>4008</v>
-      </c>
-      <c r="B551" s="63" t="s">
-        <v>4009</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="64" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B552" s="64" t="s">
         <v>4010</v>
-      </c>
-      <c r="B552" s="64" t="s">
-        <v>4011</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="65" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B553" s="65" t="s">
         <v>4012</v>
-      </c>
-      <c r="B553" s="65" t="s">
-        <v>4013</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="66" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="B554" s="66" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="69" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B555" s="69" t="s">
         <v>4019</v>
-      </c>
-      <c r="B555" s="69" t="s">
-        <v>4020</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -33763,23 +33820,23 @@
         <v>1885</v>
       </c>
       <c r="B556" s="70" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="71" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B557" s="71" t="s">
         <v>4022</v>
-      </c>
-      <c r="B557" s="71" t="s">
-        <v>4023</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="72" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B558" s="72" t="s">
         <v>4024</v>
-      </c>
-      <c r="B558" s="72" t="s">
-        <v>4025</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -33787,95 +33844,95 @@
         <v>2777</v>
       </c>
       <c r="B559" s="74" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="75" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B560" s="75" t="s">
         <v>4029</v>
-      </c>
-      <c r="B560" s="75" t="s">
-        <v>4030</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="76" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B561" s="76" t="s">
         <v>4031</v>
-      </c>
-      <c r="B561" s="76" t="s">
-        <v>4032</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="87" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B562" s="87" t="s">
         <v>4050</v>
-      </c>
-      <c r="B562" s="87" t="s">
-        <v>4051</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="88" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B563" s="88" t="s">
         <v>4052</v>
-      </c>
-      <c r="B563" s="88" t="s">
-        <v>4053</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="89" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B564" s="89" t="s">
         <v>4054</v>
-      </c>
-      <c r="B564" s="89" t="s">
-        <v>4055</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="90" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B565" s="90" t="s">
         <v>4056</v>
-      </c>
-      <c r="B565" s="90" t="s">
-        <v>4057</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="91" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B566" s="91" t="s">
         <v>4058</v>
-      </c>
-      <c r="B566" s="91" t="s">
-        <v>4059</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="29">
       <c r="A567" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B567" s="2" t="s">
         <v>4088</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>4089</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B568" t="s">
         <v>4090</v>
-      </c>
-      <c r="B568" t="s">
-        <v>4091</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="B569" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B570" t="s">
         <v>4094</v>
-      </c>
-      <c r="B570" t="s">
-        <v>4095</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -33883,111 +33940,111 @@
         <v>2875</v>
       </c>
       <c r="B571" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B572" t="s">
         <v>4115</v>
-      </c>
-      <c r="B572" t="s">
-        <v>4116</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B573" t="s">
         <v>4117</v>
-      </c>
-      <c r="B573" t="s">
-        <v>4118</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B574" t="s">
         <v>4119</v>
-      </c>
-      <c r="B574" t="s">
-        <v>4120</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B575" t="s">
         <v>4121</v>
-      </c>
-      <c r="B575" t="s">
-        <v>4122</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="B576" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B577" t="s">
         <v>4126</v>
-      </c>
-      <c r="B577" t="s">
-        <v>4127</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B578" t="s">
         <v>4130</v>
-      </c>
-      <c r="B578" t="s">
-        <v>4131</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B579" t="s">
         <v>4132</v>
-      </c>
-      <c r="B579" t="s">
-        <v>4133</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B580" t="s">
         <v>4140</v>
-      </c>
-      <c r="B580" t="s">
-        <v>4141</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="29">
       <c r="A581" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B581" s="2" t="s">
         <v>4142</v>
-      </c>
-      <c r="B581" s="2" t="s">
-        <v>4143</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B582" t="s">
         <v>4144</v>
-      </c>
-      <c r="B582" t="s">
-        <v>4145</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B583" t="s">
         <v>4146</v>
-      </c>
-      <c r="B583" t="s">
-        <v>4147</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B584" t="s">
         <v>4159</v>
-      </c>
-      <c r="B584" t="s">
-        <v>4160</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -34000,18 +34057,18 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B586" t="s">
         <v>4161</v>
-      </c>
-      <c r="B586" t="s">
-        <v>4162</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B587" t="s">
         <v>4163</v>
-      </c>
-      <c r="B587" t="s">
-        <v>4164</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -34019,7 +34076,7 @@
         <v>2777</v>
       </c>
       <c r="B588" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -34032,10 +34089,10 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B590" t="s">
         <v>4166</v>
-      </c>
-      <c r="B590" t="s">
-        <v>4167</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -34043,79 +34100,79 @@
         <v>2699</v>
       </c>
       <c r="B591" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B592" t="s">
         <v>4169</v>
-      </c>
-      <c r="B592" t="s">
-        <v>4170</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B593" t="s">
         <v>4171</v>
-      </c>
-      <c r="B593" t="s">
-        <v>4172</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B594" t="s">
         <v>4173</v>
-      </c>
-      <c r="B594" t="s">
-        <v>4174</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B595" t="s">
         <v>4175</v>
-      </c>
-      <c r="B595" t="s">
-        <v>4176</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B596" t="s">
         <v>4177</v>
-      </c>
-      <c r="B596" t="s">
-        <v>4178</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B597" t="s">
         <v>4179</v>
-      </c>
-      <c r="B597" t="s">
-        <v>4180</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B598" t="s">
         <v>4183</v>
-      </c>
-      <c r="B598" t="s">
-        <v>4184</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B599" t="s">
         <v>4185</v>
-      </c>
-      <c r="B599" t="s">
-        <v>4186</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B600" t="s">
         <v>4187</v>
-      </c>
-      <c r="B600" t="s">
-        <v>4188</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -34123,311 +34180,311 @@
         <v>2617</v>
       </c>
       <c r="B601" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B602" t="s">
         <v>4190</v>
-      </c>
-      <c r="B602" t="s">
-        <v>4191</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B603" t="s">
         <v>4192</v>
-      </c>
-      <c r="B603" t="s">
-        <v>4193</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B604" t="s">
         <v>4204</v>
-      </c>
-      <c r="B604" t="s">
-        <v>4205</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B605" t="s">
         <v>4206</v>
-      </c>
-      <c r="B605" t="s">
-        <v>4207</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B606" t="s">
         <v>4208</v>
-      </c>
-      <c r="B606" t="s">
-        <v>4209</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B607" t="s">
         <v>4210</v>
-      </c>
-      <c r="B607" t="s">
-        <v>4211</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B608" t="s">
         <v>4212</v>
-      </c>
-      <c r="B608" t="s">
-        <v>4213</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B609" t="s">
         <v>4214</v>
-      </c>
-      <c r="B609" t="s">
-        <v>4215</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B610" t="s">
         <v>4230</v>
-      </c>
-      <c r="B610" t="s">
-        <v>4231</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B611" t="s">
         <v>4245</v>
-      </c>
-      <c r="B611" t="s">
-        <v>4246</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="B612" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B613" t="s">
         <v>4254</v>
-      </c>
-      <c r="B613" t="s">
-        <v>4255</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B614" t="s">
         <v>4256</v>
-      </c>
-      <c r="B614" t="s">
-        <v>4257</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B615" t="s">
         <v>4258</v>
-      </c>
-      <c r="B615" t="s">
-        <v>4259</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="B616" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B617" t="s">
         <v>4261</v>
-      </c>
-      <c r="B617" t="s">
-        <v>4262</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B618" t="s">
         <v>4269</v>
-      </c>
-      <c r="B618" t="s">
-        <v>4270</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B619" t="s">
         <v>4271</v>
-      </c>
-      <c r="B619" t="s">
-        <v>4272</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B620" t="s">
         <v>4273</v>
-      </c>
-      <c r="B620" t="s">
-        <v>4274</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B621" t="s">
         <v>4275</v>
-      </c>
-      <c r="B621" t="s">
-        <v>4276</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B622" t="s">
         <v>4277</v>
-      </c>
-      <c r="B622" t="s">
-        <v>4278</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B623" t="s">
         <v>4279</v>
-      </c>
-      <c r="B623" t="s">
-        <v>4280</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B624" t="s">
         <v>4281</v>
-      </c>
-      <c r="B624" t="s">
-        <v>4282</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B625" t="s">
         <v>4299</v>
-      </c>
-      <c r="B625" t="s">
-        <v>4300</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B626" t="s">
         <v>4305</v>
-      </c>
-      <c r="B626" t="s">
-        <v>4306</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B627" t="s">
         <v>4307</v>
-      </c>
-      <c r="B627" t="s">
-        <v>4308</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B628" t="s">
         <v>4349</v>
-      </c>
-      <c r="B628" t="s">
-        <v>4350</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B629" t="s">
         <v>4380</v>
-      </c>
-      <c r="B629" t="s">
-        <v>4381</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B630" t="s">
         <v>4408</v>
-      </c>
-      <c r="B630" t="s">
-        <v>4409</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B631" t="s">
         <v>4414</v>
-      </c>
-      <c r="B631" t="s">
-        <v>4415</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B632" t="s">
         <v>4433</v>
-      </c>
-      <c r="B632" t="s">
-        <v>4434</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B633" t="s">
         <v>4435</v>
-      </c>
-      <c r="B633" t="s">
-        <v>4436</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="58">
       <c r="A634" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B634" s="2" t="s">
         <v>4437</v>
-      </c>
-      <c r="B634" s="2" t="s">
-        <v>4438</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B635" t="s">
         <v>4441</v>
-      </c>
-      <c r="B635" t="s">
-        <v>4442</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B636" t="s">
         <v>4289</v>
-      </c>
-      <c r="B636" t="s">
-        <v>4290</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B637" t="s">
         <v>4447</v>
-      </c>
-      <c r="B637" t="s">
-        <v>4448</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B638" t="s">
         <v>4449</v>
-      </c>
-      <c r="B638" t="s">
-        <v>4450</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B639" t="s">
         <v>4455</v>
-      </c>
-      <c r="B639" t="s">
-        <v>4456</v>
       </c>
     </row>
   </sheetData>
